--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,98 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>8</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-prey-veng/Umvds9OS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.01</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 04:13</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>3.98</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.79</v>
+        <v>4.02</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27/08/2023 11:03</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 04:13</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-visakha/tpiXHheH/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-phnom-penh-crown/vLfGLzdh/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Phnom Penh Crown</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.02</v>
+        <v>3.43</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>26/08/2023 04:13</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.98</v>
+        <v>3.54</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>27/08/2023 11:03</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>26/08/2023 04:13</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-phnom-penh-crown/vLfGLzdh/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-visakha/tpiXHheH/</t>
         </is>
       </c>
     </row>
@@ -3858,6 +3858,374 @@
       <c r="V37" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-prey-veng/Umvds9OS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.57</v>
+        <v>1.25</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4.01</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>17/09/2023 12:52</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.78</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.95</v>
+        <v>4.96</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17/09/2023 12:54</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>6.31</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>5.17</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>17/09/2023 12:52</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-nagaworld/vuJcYDub/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-kirivong-sok-sen-chey/WEJgZgQi/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.25</v>
+        <v>5.57</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>4.01</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>5.6</v>
+        <v>4.78</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.96</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>6.31</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.17</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-kirivong-sok-sen-chey/WEJgZgQi/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-nagaworld/vuJcYDub/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,466 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-svay-rieng/vNTVz71d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45228.40625</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-nagaworld/I5YAbAg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45228.40625</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-phnom-penh-crown/0WURymnj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45228.40625</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:30</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-visakha/CSXEcU89/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:46</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:46</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-tiffy-army/vFZ6ajvc/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.04</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 09:30</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 11:02</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2.73</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.94</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 09:30</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-visakha/xhYp6ed5/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-prey-veng/b1Zt7ysa/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 09:30</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 11:02</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.73</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.94</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 09:30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-prey-veng/b1Zt7ysa/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-visakha/xhYp6ed5/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>4.37</v>
+        <v>1.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.18</v>
+        <v>1.19</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.07</v>
+        <v>6.29</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.44</v>
+        <v>6.51</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.48</v>
+        <v>8.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.84</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.73</v>
+        <v>5.69</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:51</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.27</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.07</v>
+        <v>7.79</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:46</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.11</v>
+        <v>4.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>4.18</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.69</v>
+        <v>4.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:51</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>9.710000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.79</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:46</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>1.84</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.29</v>
+        <v>3.45</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6.51</v>
+        <v>3.73</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>8.19</v>
+        <v>3.27</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>8.699999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
         </is>
       </c>
     </row>
@@ -4686,6 +4686,282 @@
       <c r="V46" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-tiffy-army/vFZ6ajvc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45234.40625</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>04/11/2023 09:30</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>04/11/2023 09:30</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>04/11/2023 09:30</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-visakha/6TkmuMhr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:45</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-phnom-penh-crown/Eggew0Nf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-prey-veng/QVyJdlOF/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.04</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 09:30</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 11:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.73</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.94</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:07</t>
+          <t>12/08/2023 09:30</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-prey-veng/b1Zt7ysa/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-visakha/xhYp6ed5/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 09:30</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 11:02</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2.73</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.94</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 09:30</t>
+          <t>12/08/2023 12:07</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-visakha/xhYp6ed5/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-prey-veng/b1Zt7ysa/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:03</t>
+          <t>20/08/2023 12:02</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.66</v>
+        <v>3.62</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8.59</v>
+        <v>4.7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>3.89</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>12.86</v>
+        <v>5.42</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:02</t>
+          <t>20/08/2023 12:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.62</v>
+        <v>7.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.7</v>
+        <v>8.59</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.89</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.42</v>
+        <v>12.86</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>6.29</v>
+        <v>7</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>6.51</v>
+        <v>5.69</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:51</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>8.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.699999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:46</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>7</v>
+        <v>6.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.69</v>
+        <v>6.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:51</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>9.710000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>7.79</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:46</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,190 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-prey-veng/QVyJdlOF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45235.40625</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>03/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:44</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>03/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:44</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>03/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:44</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-dangkor-senchey/hphaxKx1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-tiffy-army/pKlivt8l/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:02</t>
+          <t>20/08/2023 12:03</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.62</v>
+        <v>7.66</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.7</v>
+        <v>8.59</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.89</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.42</v>
+        <v>12.86</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:03</t>
+          <t>20/08/2023 12:02</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>7.66</v>
+        <v>3.62</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>8.59</v>
+        <v>4.7</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>3.89</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>12.86</v>
+        <v>5.42</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.25</v>
+        <v>5.57</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>4.01</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>4.78</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.96</v>
+        <v>3.95</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>6.31</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>16/09/2023 01:12</t>
+          <t>17/09/2023 02:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.17</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>17/09/2023 13:00</t>
+          <t>17/09/2023 12:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-kirivong-sok-sen-chey/WEJgZgQi/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-nagaworld/vuJcYDub/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.57</v>
+        <v>1.25</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.01</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>17/09/2023 12:52</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.78</v>
+        <v>5.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4.96</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>17/09/2023 12:54</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>6.31</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>17/09/2023 02:12</t>
+          <t>16/09/2023 01:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>5.17</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>17/09/2023 12:52</t>
+          <t>17/09/2023 13:00</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-nagaworld/vuJcYDub/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-kirivong-sok-sen-chey/WEJgZgQi/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.11</v>
+        <v>4.37</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>4.18</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>4.07</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>5.69</v>
+        <v>4.44</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:51</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>9.710000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>7.79</v>
+        <v>1.56</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:46</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.15</v>
+        <v>1.84</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>6.29</v>
+        <v>3.45</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>6.51</v>
+        <v>3.73</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>8.19</v>
+        <v>3.27</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.699999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>4.37</v>
+        <v>1.11</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.18</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.07</v>
+        <v>7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.44</v>
+        <v>5.69</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:51</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.48</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.56</v>
+        <v>7.79</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:46</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.84</v>
+        <v>1.15</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>6.29</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.73</v>
+        <v>6.51</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.27</v>
+        <v>8.19</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.07</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>4.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.56</v>
+        <v>6.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.71</v>
+        <v>4.12</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.03</v>
+        <v>4.95</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-nagaworld/I5YAbAg3/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-visakha/CSXEcU89/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.07</v>
+        <v>3.7</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.02</v>
+        <v>4.56</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.12</v>
+        <v>3.71</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-visakha/CSXEcU89/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-nagaworld/I5YAbAg3/</t>
         </is>
       </c>
     </row>
@@ -5146,6 +5146,466 @@
       <c r="V51" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-tiffy-army/pKlivt8l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45255.39583333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>24/11/2023 22:43</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>24/11/2023 22:43</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>25/11/2023 09:04</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>24/11/2023 22:43</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>25/11/2023 09:04</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-dangkor-senchey/nqo8zb7D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-svay-rieng/dESbcLEQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:16</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-nagaworld/z9s4yvh7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45256.39583333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:20</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-boeung-ket/vwYgb1aK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-kirivong-sok-sen-chey/0nZkaspE/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,6 +5609,98 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45262.39583333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>01/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>02/12/2023 09:05</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:38</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>01/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>02/12/2023 09:05</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-angkor-tiger/hpEUiaxl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Boeung Ket</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.45</v>
+        <v>3.96</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>4.58</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.66</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.95</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-boeung-ket/bR4xAwct/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-svay-rieng/nkx9R5SD/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Angkor Tiger</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.81</v>
+        <v>1.45</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.81</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>4.21</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.52</v>
+        <v>4.45</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 11:05</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.13</v>
+        <v>4.66</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.13</v>
+        <v>4.95</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-angkor-tiger/hl4t9cCn/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-boeung-ket/bR4xAwct/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Svay Rieng</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.96</v>
+        <v>2.81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4.58</v>
+        <v>2.81</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.52</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 11:05</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-svay-rieng/nkx9R5SD/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-angkor-tiger/hl4t9cCn/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>8.800000000000001</v>
+        <v>5.41</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>10.22</v>
+        <v>7.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>6.32</v>
+        <v>4.57</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6.43</v>
+        <v>5.58</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-phnom-penh-crown/08nuoiP3/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-svay-rieng/IqcznX9c/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Svay Rieng</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
       <c r="J35" t="n">
-        <v>5.41</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>7.23</v>
+        <v>10.22</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.57</v>
+        <v>6.32</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.58</v>
+        <v>6.43</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-svay-rieng/IqcznX9c/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-phnom-penh-crown/08nuoiP3/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.07</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.02</v>
+        <v>4.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.12</v>
+        <v>3.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-visakha/CSXEcU89/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-nagaworld/I5YAbAg3/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>4.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.56</v>
+        <v>6.02</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.71</v>
+        <v>4.12</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.03</v>
+        <v>4.95</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-nagaworld/I5YAbAg3/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-visakha/CSXEcU89/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.11</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 00:16</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.55</v>
+        <v>4.73</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.53</v>
+        <v>4.82</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 11:56</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.22</v>
+        <v>5.85</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.88</v>
+        <v>5.98</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 11:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-svay-rieng/dESbcLEQ/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-nagaworld/z9s4yvh7/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>2.11</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>25/11/2023 00:16</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.73</v>
+        <v>3.55</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25/11/2023 11:56</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.85</v>
+        <v>3.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.98</v>
+        <v>2.88</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>25/11/2023 11:56</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-nagaworld/z9s4yvh7/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-svay-rieng/dESbcLEQ/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,1294 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-angkor-tiger/hpEUiaxl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:38</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:39</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:32</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-prey-veng/lC7wjw70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:39</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:05</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:05</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-svay-rieng/6mIYjJif/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45264.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>04/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>04/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>04/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-phnom-penh-crown/bNEQhuNs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45268.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-nagaworld/MwLplHyD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-dangkor-senchey/0UJlmyiJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45270.39583333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>09/12/2023 22:43</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>10/12/2023 09:20</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>09/12/2023 22:43</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>10/12/2023 09:20</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>09/12/2023 22:43</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>10/12/2023 09:20</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-kirivong-sok-sen-chey/2ZcXBKTJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-angkor-tiger/YHl36bis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>10/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-boeung-ket/Gx2yBvqQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45276.39583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>15/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>16/12/2023 09:23</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>15/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>16/12/2023 09:23</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>15/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>16/12/2023 09:22</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-svay-rieng/UqrC4xMg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>16/12/2023 10:04</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>16/12/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>16/12/2023 10:04</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-prey-veng/C8m75I6m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45277.39583333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>17/12/2023 07:33</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>16/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>17/12/2023 07:33</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>16/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>16/12/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-boeung-ket/2ctK2Gj6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:32</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-dangkor-senchey/8zsG3dy0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45278.5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:49</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:41</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-visakha/EXqO1z6C/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.96</v>
+        <v>1.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.58</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>4.66</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>4.95</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 12:15</t>
+          <t>06/08/2023 12:18</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-svay-rieng/nkx9R5SD/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-boeung-ket/bR4xAwct/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.45</v>
+        <v>2.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>2.81</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.21</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.45</v>
+        <v>3.52</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 11:05</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.66</v>
+        <v>2.13</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/08/2023 01:13</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.95</v>
+        <v>2.13</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 12:18</t>
+          <t>06/08/2023 02:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-boeung-ket/bR4xAwct/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-angkor-tiger/hl4t9cCn/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.81</v>
+        <v>3.96</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.81</v>
+        <v>4.58</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.52</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 11:05</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>05/08/2023 01:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 02:12</t>
+          <t>06/08/2023 12:15</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-angkor-tiger/hl4t9cCn/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-svay-rieng/nkx9R5SD/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:03</t>
+          <t>20/08/2023 12:02</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.66</v>
+        <v>3.62</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8.59</v>
+        <v>4.7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>3.89</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>20/08/2023 03:12</t>
+          <t>19/08/2023 01:13</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>12.86</v>
+        <v>5.42</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 12:04</t>
+          <t>20/08/2023 12:15</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:02</t>
+          <t>20/08/2023 12:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.62</v>
+        <v>7.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.7</v>
+        <v>8.59</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.89</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>19/08/2023 01:13</t>
+          <t>20/08/2023 03:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.42</v>
+        <v>12.86</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 12:15</t>
+          <t>20/08/2023 12:04</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-nagaworld/dd5BMGtn/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-dangkor-senchey/6XP12DeU/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Phnom Penh Crown</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.01</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.02</v>
+        <v>3.43</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>26/08/2023 04:13</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.98</v>
+        <v>3.54</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>27/08/2023 11:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>27/08/2023 11:11</t>
+          <t>26/08/2023 04:13</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-phnom-penh-crown/vLfGLzdh/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-visakha/tpiXHheH/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.01</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 04:13</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.54</v>
+        <v>3.98</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.79</v>
+        <v>4.02</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>27/08/2023 11:03</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 04:13</t>
+          <t>27/08/2023 11:11</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-visakha/tpiXHheH/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-phnom-penh-crown/vLfGLzdh/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Svay Rieng</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
       <c r="J34" t="n">
-        <v>5.41</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>7.23</v>
+        <v>10.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.57</v>
+        <v>6.32</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.58</v>
+        <v>6.43</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>30/09/2023 10:35</t>
+          <t>30/09/2023 10:31</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-svay-rieng/IqcznX9c/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-phnom-penh-crown/08nuoiP3/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>8.800000000000001</v>
+        <v>5.41</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>10.22</v>
+        <v>7.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.32</v>
+        <v>4.57</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6.43</v>
+        <v>5.58</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>30/09/2023 10:31</t>
+          <t>30/09/2023 10:35</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/angkor-tiger-phnom-penh-crown/08nuoiP3/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-svay-rieng/IqcznX9c/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>4.37</v>
+        <v>1.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.18</v>
+        <v>1.19</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.07</v>
+        <v>6.29</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.44</v>
+        <v>6.51</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.48</v>
+        <v>8.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.84</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.73</v>
+        <v>5.69</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:51</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.27</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.07</v>
+        <v>7.79</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:46</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.11</v>
+        <v>1.84</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.69</v>
+        <v>3.73</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:51</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>9.710000000000001</v>
+        <v>3.27</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.79</v>
+        <v>3.07</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:46</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>4.37</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>4.18</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.29</v>
+        <v>4.07</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6.51</v>
+        <v>4.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>8.19</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>8.699999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.47</v>
+        <v>1.6</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.21</v>
+        <v>1.89</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>04/11/2023 11:45</t>
+          <t>04/11/2023 11:55</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.65</v>
+        <v>3.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.9</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04/11/2023 11:46</t>
+          <t>04/11/2023 11:55</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>3.26</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>04/11/2023 11:46</t>
+          <t>04/11/2023 11:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-phnom-penh-crown/Eggew0Nf/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-prey-veng/QVyJdlOF/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.6</v>
+        <v>3.47</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.89</v>
+        <v>4.21</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/11/2023 11:55</t>
+          <t>04/11/2023 11:45</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.82</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/11/2023 11:55</t>
+          <t>04/11/2023 11:46</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.26</v>
+        <v>1.63</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/11/2023 11:55</t>
+          <t>04/11/2023 11:46</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-prey-veng/QVyJdlOF/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-phnom-penh-crown/Eggew0Nf/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>2.11</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/11/2023 00:16</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.73</v>
+        <v>3.55</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/11/2023 11:56</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.85</v>
+        <v>3.22</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.98</v>
+        <v>2.88</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/11/2023 11:56</t>
+          <t>25/11/2023 11:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-nagaworld/z9s4yvh7/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-svay-rieng/dESbcLEQ/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.11</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 00:16</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.55</v>
+        <v>4.73</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.53</v>
+        <v>4.82</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 11:56</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.22</v>
+        <v>5.85</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.88</v>
+        <v>5.98</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>25/11/2023 11:58</t>
+          <t>25/11/2023 11:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-svay-rieng/dESbcLEQ/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-nagaworld/z9s4yvh7/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.77</v>
+        <v>5.99</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.74</v>
+        <v>6.06</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/12/2023 11:38</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.85</v>
+        <v>4.61</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.05</v>
+        <v>4.65</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/12/2023 11:39</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.46</v>
+        <v>1.37</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>1.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/12/2023 11:32</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-prey-veng/lC7wjw70/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-svay-rieng/6mIYjJif/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>8.35</v>
+        <v>1.77</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6.57</v>
+        <v>1.74</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 11:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.02</v>
+        <v>3.85</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.34</v>
+        <v>4.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 11:39</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>3.46</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.31</v>
+        <v>3.54</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:39</t>
+          <t>03/12/2023 11:32</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-prey-veng/lC7wjw70/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>5.99</v>
+        <v>8.35</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6.06</v>
+        <v>6.57</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:40</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.61</v>
+        <v>6.02</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:40</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:39</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-svay-rieng/6mIYjJif/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,466 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-visakha/EXqO1z6C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45283.39583333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/12/2023 09:27</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/12/2023 09:27</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/12/2023 09:27</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/prey-veng-angkor-tiger/ddZS0fLI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-visakha/8z3oJyym/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/tiffy-army-boeung-ket/zmYWaEzP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45284.39583333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24/12/2023 09:25</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24/12/2023 09:25</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>24/12/2023 08:44</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/kirivong-sok-sen-chey-nagaworld/QBDtKHLt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45284.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-phnom-penh-crown/O2REOcDP/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Prey Veng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.77</v>
+        <v>8.35</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.74</v>
+        <v>6.57</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:38</t>
+          <t>03/12/2023 11:40</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.85</v>
+        <v>6.02</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,32 +5856,32 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.05</v>
+        <v>5.34</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>03/12/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>03/12/2023 11:39</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>03/12/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>03/12/2023 11:32</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-prey-veng/lC7wjw70/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Prey Veng</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>8.35</v>
+        <v>1.77</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6.57</v>
+        <v>1.74</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 11:38</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.02</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>5.34</v>
+        <v>4.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 11:39</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.2</v>
+        <v>3.46</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.31</v>
+        <v>3.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/12/2023 11:39</t>
+          <t>03/12/2023 11:32</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/boeung-ket-prey-veng/lC7wjw70/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-phnom-penh-crown/O2REOcDP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45297.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Dangkor</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Kirivong Sok Sen Chey</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-kirivong-sok-sen-chey/Mw7kIejg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45297.5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NagaWorld</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Boeung Ket</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:44</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>06/01/2024 10:05</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:44</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-boeung-ket/G06gHF5a/</t>
         </is>
       </c>
     </row>

--- a/2023/cambodia_cpl_2023-2024.xlsx
+++ b/2023/cambodia_cpl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Angkor Tiger</t>
+          <t>Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>6.29</v>
+        <v>7</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>6.51</v>
+        <v>5.69</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:51</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>8.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>21/10/2023 00:43</t>
+          <t>21/10/2023 00:13</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.699999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:45</t>
+          <t>22/10/2023 12:46</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kirivong Sok Sen Chey</t>
+          <t>Angkor Tiger</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>7</v>
+        <v>6.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.69</v>
+        <v>6.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:51</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>9.710000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 00:13</t>
+          <t>21/10/2023 00:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>7.79</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:46</t>
+          <t>22/10/2023 12:45</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-kirivong-sok-sen-chey/vaoqpBvA/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-angkor-tiger/8YkmqVgG/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tiffy Army</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.84</v>
+        <v>4.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.95</v>
+        <v>4.18</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.73</v>
+        <v>4.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.27</v>
+        <v>1.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.07</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 12:43</t>
+          <t>22/10/2023 12:44</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Tiffy Army</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>4.37</v>
+        <v>1.84</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.18</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.07</v>
+        <v>3.45</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.44</v>
+        <v>3.73</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>3.27</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>3.07</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:44</t>
+          <t>22/10/2023 12:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-boeung-ket/nPlirk9M/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-tiffy-army/69VNxTWq/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NagaWorld</t>
+          <t>Dangkor</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Svay Rieng</t>
+          <t>Visakha</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>5.99</v>
+        <v>8.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6.06</v>
+        <v>6.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:40</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.61</v>
+        <v>6.02</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:40</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>03/12/2023 00:42</t>
+          <t>03/12/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/12/2023 10:05</t>
+          <t>03/12/2023 11:39</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-svay-rieng/6mIYjJif/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dangkor</t>
+          <t>NagaWorld</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Visakha</t>
+          <t>Svay Rieng</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>8.35</v>
+        <v>5.99</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6.57</v>
+        <v>6.06</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>6.02</v>
+        <v>4.61</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.34</v>
+        <v>4.65</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:40</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/12/2023 00:12</t>
+          <t>03/12/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>03/12/2023 11:39</t>
+          <t>03/12/2023 10:05</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/cambodia/cpl/dangkor-senchey-visakha/S26skcM6/</t>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-svay-rieng/6mIYjJif/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,282 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/cambodia/cpl/nagaworld-boeung-ket/G06gHF5a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45298.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Svay Rieng</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Prey Veng</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:33</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:56</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/svay-rieng-prey-veng/z3MfFgzC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45298.5</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Angkor Tiger</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:58</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>07/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:59</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/phnom-penh-crown-angkor-tiger/EgLbEDkI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cambodia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45298.5</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Visakha</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tiffy Army</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:58</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>07/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:58</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>07/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:58</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/cambodia/cpl/visakha-tiffy-army/fi5cGZK5/</t>
         </is>
       </c>
     </row>
